--- a/Dataset/19/수리남_학습 (19)/수리남1.xlsx
+++ b/Dataset/19/수리남_학습 (19)/수리남1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82109\OneDrive - 부산광역시교육청\문서\_3학년 1학기\AI 실무 프로젝트\수리남_학습 (19)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\doohk\Desktop\GIST\4학년 1학기\AI 프로젝트\AI\Dataset\19\수리남_학습 (19)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E33E661-FB26-442C-B4DF-8E6548301488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5219055C-1713-4514-9BE8-A1757F7123F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5801,7 +5801,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -6106,19 +6106,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:D963"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A844" workbookViewId="0">
-      <selection activeCell="D964" sqref="D964"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="59.83203125" customWidth="1"/>
+    <col min="2" max="2" width="59.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6132,7 +6131,7 @@
         <v>1898</v>
       </c>
     </row>
-    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -6146,7 +6145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -6160,7 +6159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -6174,7 +6173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -6188,7 +6187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -6202,7 +6201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -6216,7 +6215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -6230,7 +6229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -6244,7 +6243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -6258,7 +6257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -6272,7 +6271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -6286,7 +6285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -6300,7 +6299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -6314,7 +6313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -6328,7 +6327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -6342,7 +6341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -6356,7 +6355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -6370,7 +6369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -6384,7 +6383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -6398,7 +6397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -6412,7 +6411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -6426,7 +6425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>45</v>
       </c>
@@ -6440,7 +6439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>47</v>
       </c>
@@ -6454,7 +6453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>49</v>
       </c>
@@ -6468,7 +6467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>51</v>
       </c>
@@ -6482,7 +6481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>53</v>
       </c>
@@ -6496,7 +6495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>55</v>
       </c>
@@ -6510,7 +6509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>57</v>
       </c>
@@ -6524,7 +6523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>59</v>
       </c>
@@ -6538,7 +6537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>61</v>
       </c>
@@ -6552,7 +6551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>63</v>
       </c>
@@ -6566,7 +6565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>65</v>
       </c>
@@ -6580,7 +6579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>67</v>
       </c>
@@ -6594,7 +6593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>69</v>
       </c>
@@ -6608,7 +6607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>71</v>
       </c>
@@ -6622,7 +6621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>73</v>
       </c>
@@ -6636,7 +6635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>75</v>
       </c>
@@ -6650,7 +6649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>77</v>
       </c>
@@ -6664,7 +6663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>79</v>
       </c>
@@ -6678,7 +6677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>81</v>
       </c>
@@ -6692,7 +6691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>83</v>
       </c>
@@ -6706,7 +6705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>85</v>
       </c>
@@ -6720,7 +6719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>87</v>
       </c>
@@ -6734,7 +6733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>89</v>
       </c>
@@ -6748,7 +6747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>91</v>
       </c>
@@ -6762,7 +6761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>93</v>
       </c>
@@ -6776,7 +6775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>95</v>
       </c>
@@ -6790,7 +6789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>97</v>
       </c>
@@ -6804,7 +6803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>99</v>
       </c>
@@ -6818,7 +6817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>101</v>
       </c>
@@ -6832,7 +6831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>103</v>
       </c>
@@ -6846,7 +6845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>105</v>
       </c>
@@ -6860,7 +6859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>107</v>
       </c>
@@ -6874,7 +6873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>109</v>
       </c>
@@ -6888,7 +6887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>111</v>
       </c>
@@ -6902,7 +6901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
         <v>113</v>
       </c>
@@ -6916,7 +6915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>115</v>
       </c>
@@ -6930,7 +6929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
         <v>117</v>
       </c>
@@ -6944,7 +6943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>119</v>
       </c>
@@ -6958,7 +6957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
         <v>121</v>
       </c>
@@ -6972,7 +6971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>123</v>
       </c>
@@ -6986,7 +6985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
         <v>125</v>
       </c>
@@ -7000,7 +6999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>127</v>
       </c>
@@ -7014,7 +7013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
         <v>129</v>
       </c>
@@ -7028,7 +7027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
         <v>131</v>
       </c>
@@ -7042,7 +7041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
         <v>133</v>
       </c>
@@ -7056,7 +7055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
         <v>135</v>
       </c>
@@ -7070,7 +7069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
         <v>137</v>
       </c>
@@ -7084,7 +7083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
         <v>139</v>
       </c>
@@ -7098,7 +7097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
         <v>141</v>
       </c>
@@ -7112,7 +7111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
         <v>143</v>
       </c>
@@ -7126,7 +7125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
         <v>145</v>
       </c>
@@ -7140,7 +7139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
         <v>147</v>
       </c>
@@ -7154,7 +7153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
         <v>149</v>
       </c>
@@ -7168,7 +7167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
         <v>151</v>
       </c>
@@ -7182,7 +7181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
         <v>153</v>
       </c>
@@ -7196,7 +7195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
         <v>155</v>
       </c>
@@ -7210,7 +7209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
         <v>157</v>
       </c>
@@ -7224,7 +7223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
         <v>159</v>
       </c>
@@ -7238,7 +7237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
         <v>161</v>
       </c>
@@ -7252,7 +7251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
         <v>163</v>
       </c>
@@ -7266,7 +7265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
         <v>165</v>
       </c>
@@ -7280,7 +7279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
         <v>167</v>
       </c>
@@ -7294,7 +7293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
         <v>169</v>
       </c>
@@ -7308,7 +7307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
         <v>171</v>
       </c>
@@ -7322,7 +7321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
         <v>173</v>
       </c>
@@ -7336,7 +7335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
         <v>175</v>
       </c>
@@ -7350,7 +7349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
         <v>177</v>
       </c>
@@ -7364,7 +7363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
         <v>179</v>
       </c>
@@ -7378,7 +7377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
         <v>181</v>
       </c>
@@ -7392,7 +7391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
         <v>183</v>
       </c>
@@ -7406,7 +7405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
         <v>185</v>
       </c>
@@ -7420,7 +7419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
         <v>187</v>
       </c>
@@ -7434,7 +7433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
         <v>189</v>
       </c>
@@ -7448,7 +7447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
         <v>191</v>
       </c>
@@ -7462,7 +7461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
         <v>193</v>
       </c>
@@ -7476,7 +7475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="s">
         <v>195</v>
       </c>
@@ -7490,7 +7489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="s">
         <v>197</v>
       </c>
@@ -7504,7 +7503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" t="s">
         <v>199</v>
       </c>
@@ -7518,7 +7517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="s">
         <v>201</v>
       </c>
@@ -7532,7 +7531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" t="s">
         <v>203</v>
       </c>
@@ -7546,7 +7545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" t="s">
         <v>205</v>
       </c>
@@ -7560,7 +7559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" t="s">
         <v>207</v>
       </c>
@@ -7574,7 +7573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" t="s">
         <v>209</v>
       </c>
@@ -7588,7 +7587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" t="s">
         <v>211</v>
       </c>
@@ -7602,7 +7601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" t="s">
         <v>213</v>
       </c>
@@ -7616,7 +7615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" t="s">
         <v>215</v>
       </c>
@@ -7630,7 +7629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" t="s">
         <v>217</v>
       </c>
@@ -7644,7 +7643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" t="s">
         <v>219</v>
       </c>
@@ -7658,7 +7657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" t="s">
         <v>221</v>
       </c>
@@ -7672,7 +7671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" t="s">
         <v>223</v>
       </c>
@@ -7686,7 +7685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" t="s">
         <v>225</v>
       </c>
@@ -7700,7 +7699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" t="s">
         <v>227</v>
       </c>
@@ -7714,7 +7713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" t="s">
         <v>229</v>
       </c>
@@ -7728,7 +7727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" t="s">
         <v>231</v>
       </c>
@@ -7742,7 +7741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" t="s">
         <v>233</v>
       </c>
@@ -7756,7 +7755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" t="s">
         <v>235</v>
       </c>
@@ -7770,7 +7769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" t="s">
         <v>237</v>
       </c>
@@ -7784,7 +7783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" t="s">
         <v>239</v>
       </c>
@@ -7798,7 +7797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" t="s">
         <v>241</v>
       </c>
@@ -7812,7 +7811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" t="s">
         <v>243</v>
       </c>
@@ -7826,7 +7825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" t="s">
         <v>245</v>
       </c>
@@ -7840,7 +7839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" t="s">
         <v>247</v>
       </c>
@@ -7854,7 +7853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" t="s">
         <v>249</v>
       </c>
@@ -7868,7 +7867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" t="s">
         <v>251</v>
       </c>
@@ -7882,7 +7881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" t="s">
         <v>253</v>
       </c>
@@ -7896,7 +7895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" t="s">
         <v>255</v>
       </c>
@@ -7910,7 +7909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" t="s">
         <v>257</v>
       </c>
@@ -7924,7 +7923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" t="s">
         <v>259</v>
       </c>
@@ -7938,7 +7937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" t="s">
         <v>261</v>
       </c>
@@ -7952,7 +7951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" t="s">
         <v>263</v>
       </c>
@@ -7966,7 +7965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" t="s">
         <v>265</v>
       </c>
@@ -7980,7 +7979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" t="s">
         <v>267</v>
       </c>
@@ -7994,7 +7993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" t="s">
         <v>269</v>
       </c>
@@ -8008,7 +8007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" t="s">
         <v>271</v>
       </c>
@@ -8022,7 +8021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" t="s">
         <v>273</v>
       </c>
@@ -8036,7 +8035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" t="s">
         <v>275</v>
       </c>
@@ -8050,7 +8049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" t="s">
         <v>277</v>
       </c>
@@ -8064,7 +8063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" t="s">
         <v>279</v>
       </c>
@@ -8078,7 +8077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" t="s">
         <v>281</v>
       </c>
@@ -8092,7 +8091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" t="s">
         <v>283</v>
       </c>
@@ -8106,7 +8105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" t="s">
         <v>285</v>
       </c>
@@ -8120,7 +8119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" t="s">
         <v>287</v>
       </c>
@@ -8134,7 +8133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" t="s">
         <v>289</v>
       </c>
@@ -8148,7 +8147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" t="s">
         <v>291</v>
       </c>
@@ -8162,7 +8161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" t="s">
         <v>293</v>
       </c>
@@ -8176,7 +8175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" t="s">
         <v>295</v>
       </c>
@@ -8190,7 +8189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" t="s">
         <v>297</v>
       </c>
@@ -8204,7 +8203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" t="s">
         <v>299</v>
       </c>
@@ -8218,7 +8217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" t="s">
         <v>301</v>
       </c>
@@ -8232,7 +8231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" t="s">
         <v>303</v>
       </c>
@@ -8246,7 +8245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" t="s">
         <v>305</v>
       </c>
@@ -8260,7 +8259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" t="s">
         <v>307</v>
       </c>
@@ -8274,7 +8273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" t="s">
         <v>309</v>
       </c>
@@ -8288,7 +8287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" t="s">
         <v>311</v>
       </c>
@@ -8302,7 +8301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" t="s">
         <v>313</v>
       </c>
@@ -8316,7 +8315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" t="s">
         <v>315</v>
       </c>
@@ -8330,7 +8329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" t="s">
         <v>317</v>
       </c>
@@ -8344,7 +8343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" t="s">
         <v>319</v>
       </c>
@@ -8358,7 +8357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" t="s">
         <v>321</v>
       </c>
@@ -8372,7 +8371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" t="s">
         <v>323</v>
       </c>
@@ -8386,7 +8385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" t="s">
         <v>325</v>
       </c>
@@ -8400,7 +8399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" t="s">
         <v>327</v>
       </c>
@@ -8414,7 +8413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" t="s">
         <v>329</v>
       </c>
@@ -8428,7 +8427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" t="s">
         <v>331</v>
       </c>
@@ -8442,7 +8441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" t="s">
         <v>333</v>
       </c>
@@ -8456,7 +8455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" t="s">
         <v>335</v>
       </c>
@@ -8470,7 +8469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" t="s">
         <v>337</v>
       </c>
@@ -8484,7 +8483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" t="s">
         <v>339</v>
       </c>
@@ -8498,7 +8497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" t="s">
         <v>341</v>
       </c>
@@ -8512,7 +8511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" t="s">
         <v>343</v>
       </c>
@@ -8526,7 +8525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" t="s">
         <v>345</v>
       </c>
@@ -8540,7 +8539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" t="s">
         <v>347</v>
       </c>
@@ -8554,7 +8553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" t="s">
         <v>349</v>
       </c>
@@ -8568,7 +8567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" t="s">
         <v>351</v>
       </c>
@@ -8582,7 +8581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" t="s">
         <v>353</v>
       </c>
@@ -8596,7 +8595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" t="s">
         <v>355</v>
       </c>
@@ -8610,7 +8609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" t="s">
         <v>357</v>
       </c>
@@ -8624,7 +8623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" t="s">
         <v>359</v>
       </c>
@@ -8638,7 +8637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" t="s">
         <v>361</v>
       </c>
@@ -8652,7 +8651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" t="s">
         <v>363</v>
       </c>
@@ -8666,7 +8665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" t="s">
         <v>365</v>
       </c>
@@ -8680,7 +8679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" t="s">
         <v>367</v>
       </c>
@@ -8694,7 +8693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" t="s">
         <v>369</v>
       </c>
@@ -8708,7 +8707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" t="s">
         <v>371</v>
       </c>
@@ -8722,7 +8721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" t="s">
         <v>373</v>
       </c>
@@ -8736,7 +8735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" t="s">
         <v>375</v>
       </c>
@@ -8750,7 +8749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" t="s">
         <v>377</v>
       </c>
@@ -8764,7 +8763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" t="s">
         <v>379</v>
       </c>
@@ -8778,7 +8777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" t="s">
         <v>381</v>
       </c>
@@ -8792,7 +8791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" t="s">
         <v>383</v>
       </c>
@@ -8806,7 +8805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" t="s">
         <v>385</v>
       </c>
@@ -8820,7 +8819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" t="s">
         <v>387</v>
       </c>
@@ -8834,7 +8833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" t="s">
         <v>389</v>
       </c>
@@ -8848,7 +8847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" t="s">
         <v>391</v>
       </c>
@@ -8862,7 +8861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" t="s">
         <v>393</v>
       </c>
@@ -8876,7 +8875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" t="s">
         <v>395</v>
       </c>
@@ -8890,7 +8889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" t="s">
         <v>397</v>
       </c>
@@ -8904,7 +8903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" t="s">
         <v>399</v>
       </c>
@@ -8918,7 +8917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" t="s">
         <v>401</v>
       </c>
@@ -8932,7 +8931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" t="s">
         <v>403</v>
       </c>
@@ -8946,7 +8945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" t="s">
         <v>405</v>
       </c>
@@ -8960,7 +8959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" t="s">
         <v>407</v>
       </c>
@@ -8974,7 +8973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" t="s">
         <v>409</v>
       </c>
@@ -8988,7 +8987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" t="s">
         <v>411</v>
       </c>
@@ -9002,7 +9001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" t="s">
         <v>413</v>
       </c>
@@ -9016,7 +9015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" t="s">
         <v>415</v>
       </c>
@@ -9030,7 +9029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" t="s">
         <v>417</v>
       </c>
@@ -9044,7 +9043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" t="s">
         <v>419</v>
       </c>
@@ -9058,7 +9057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" t="s">
         <v>421</v>
       </c>
@@ -9072,7 +9071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" t="s">
         <v>423</v>
       </c>
@@ -9086,7 +9085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" t="s">
         <v>425</v>
       </c>
@@ -9100,7 +9099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" t="s">
         <v>427</v>
       </c>
@@ -9114,7 +9113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" t="s">
         <v>429</v>
       </c>
@@ -9128,7 +9127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" t="s">
         <v>431</v>
       </c>
@@ -9142,7 +9141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" t="s">
         <v>433</v>
       </c>
@@ -9156,7 +9155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" t="s">
         <v>435</v>
       </c>
@@ -9170,7 +9169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" t="s">
         <v>437</v>
       </c>
@@ -9184,7 +9183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" t="s">
         <v>439</v>
       </c>
@@ -9198,7 +9197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" t="s">
         <v>441</v>
       </c>
@@ -9212,7 +9211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" t="s">
         <v>443</v>
       </c>
@@ -9226,7 +9225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" t="s">
         <v>445</v>
       </c>
@@ -9240,7 +9239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" t="s">
         <v>447</v>
       </c>
@@ -9254,7 +9253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" t="s">
         <v>449</v>
       </c>
@@ -9268,7 +9267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" t="s">
         <v>451</v>
       </c>
@@ -9282,7 +9281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" t="s">
         <v>453</v>
       </c>
@@ -9296,7 +9295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" t="s">
         <v>455</v>
       </c>
@@ -9310,7 +9309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" t="s">
         <v>457</v>
       </c>
@@ -9324,7 +9323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" t="s">
         <v>459</v>
       </c>
@@ -9338,7 +9337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" t="s">
         <v>461</v>
       </c>
@@ -9352,7 +9351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" t="s">
         <v>463</v>
       </c>
@@ -9366,7 +9365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" t="s">
         <v>465</v>
       </c>
@@ -9380,7 +9379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" t="s">
         <v>467</v>
       </c>
@@ -9394,7 +9393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" t="s">
         <v>469</v>
       </c>
@@ -9408,7 +9407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" t="s">
         <v>471</v>
       </c>
@@ -9422,7 +9421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" t="s">
         <v>473</v>
       </c>
@@ -9436,7 +9435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" t="s">
         <v>475</v>
       </c>
@@ -9450,7 +9449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" t="s">
         <v>477</v>
       </c>
@@ -9464,7 +9463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" t="s">
         <v>479</v>
       </c>
@@ -9478,7 +9477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" t="s">
         <v>481</v>
       </c>
@@ -9492,7 +9491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" t="s">
         <v>483</v>
       </c>
@@ -9506,7 +9505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" t="s">
         <v>485</v>
       </c>
@@ -9520,7 +9519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" t="s">
         <v>487</v>
       </c>
@@ -9534,7 +9533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" t="s">
         <v>489</v>
       </c>
@@ -9548,7 +9547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" t="s">
         <v>491</v>
       </c>
@@ -9562,7 +9561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" t="s">
         <v>493</v>
       </c>
@@ -9576,7 +9575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" t="s">
         <v>495</v>
       </c>
@@ -9590,7 +9589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" t="s">
         <v>497</v>
       </c>
@@ -9604,7 +9603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" t="s">
         <v>499</v>
       </c>
@@ -9618,7 +9617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" t="s">
         <v>501</v>
       </c>
@@ -9632,7 +9631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A252" t="s">
         <v>503</v>
       </c>
@@ -9646,7 +9645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A253" t="s">
         <v>505</v>
       </c>
@@ -9660,7 +9659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A254" t="s">
         <v>507</v>
       </c>
@@ -9674,7 +9673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A255" t="s">
         <v>509</v>
       </c>
@@ -9688,7 +9687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A256" t="s">
         <v>511</v>
       </c>
@@ -9702,7 +9701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A257" t="s">
         <v>513</v>
       </c>
@@ -9716,7 +9715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A258" t="s">
         <v>515</v>
       </c>
@@ -9730,7 +9729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A259" t="s">
         <v>517</v>
       </c>
@@ -9744,7 +9743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A260" t="s">
         <v>519</v>
       </c>
@@ -9758,7 +9757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A261" t="s">
         <v>521</v>
       </c>
@@ -9772,7 +9771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A262" t="s">
         <v>523</v>
       </c>
@@ -9786,7 +9785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A263" t="s">
         <v>525</v>
       </c>
@@ -9800,7 +9799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A264" t="s">
         <v>527</v>
       </c>
@@ -9814,7 +9813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A265" t="s">
         <v>529</v>
       </c>
@@ -9828,7 +9827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A266" t="s">
         <v>531</v>
       </c>
@@ -9842,7 +9841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A267" t="s">
         <v>533</v>
       </c>
@@ -9856,7 +9855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A268" t="s">
         <v>535</v>
       </c>
@@ -9870,7 +9869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A269" t="s">
         <v>537</v>
       </c>
@@ -9884,7 +9883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A270" t="s">
         <v>539</v>
       </c>
@@ -9898,7 +9897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A271" t="s">
         <v>541</v>
       </c>
@@ -9912,7 +9911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A272" t="s">
         <v>543</v>
       </c>
@@ -9926,7 +9925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A273" t="s">
         <v>545</v>
       </c>
@@ -9940,7 +9939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A274" t="s">
         <v>547</v>
       </c>
@@ -9954,7 +9953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A275" t="s">
         <v>549</v>
       </c>
@@ -9968,7 +9967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A276" t="s">
         <v>551</v>
       </c>
@@ -9982,7 +9981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A277" t="s">
         <v>553</v>
       </c>
@@ -9996,7 +9995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A278" t="s">
         <v>555</v>
       </c>
@@ -10010,7 +10009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A279" t="s">
         <v>557</v>
       </c>
@@ -10024,7 +10023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A280" t="s">
         <v>559</v>
       </c>
@@ -10038,7 +10037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A281" t="s">
         <v>561</v>
       </c>
@@ -10052,7 +10051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A282" t="s">
         <v>563</v>
       </c>
@@ -10066,7 +10065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A283" t="s">
         <v>565</v>
       </c>
@@ -10080,7 +10079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A284" t="s">
         <v>567</v>
       </c>
@@ -10094,7 +10093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A285" t="s">
         <v>569</v>
       </c>
@@ -10108,7 +10107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A286" t="s">
         <v>571</v>
       </c>
@@ -10122,7 +10121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A287" t="s">
         <v>573</v>
       </c>
@@ -10136,7 +10135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A288" t="s">
         <v>575</v>
       </c>
@@ -10150,7 +10149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A289" t="s">
         <v>577</v>
       </c>
@@ -10164,7 +10163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A290" t="s">
         <v>579</v>
       </c>
@@ -10178,7 +10177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A291" t="s">
         <v>581</v>
       </c>
@@ -10192,7 +10191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A292" t="s">
         <v>583</v>
       </c>
@@ -10206,7 +10205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A293" t="s">
         <v>585</v>
       </c>
@@ -10220,7 +10219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A294" t="s">
         <v>587</v>
       </c>
@@ -10234,7 +10233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A295" t="s">
         <v>589</v>
       </c>
@@ -10248,7 +10247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A296" t="s">
         <v>591</v>
       </c>
@@ -10262,7 +10261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A297" t="s">
         <v>593</v>
       </c>
@@ -10276,7 +10275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A298" t="s">
         <v>595</v>
       </c>
@@ -10290,7 +10289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A299" t="s">
         <v>597</v>
       </c>
@@ -10304,7 +10303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A300" t="s">
         <v>599</v>
       </c>
@@ -10318,7 +10317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A301" t="s">
         <v>600</v>
       </c>
@@ -10332,7 +10331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A302" t="s">
         <v>602</v>
       </c>
@@ -10346,7 +10345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A303" t="s">
         <v>604</v>
       </c>
@@ -10360,7 +10359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A304" t="s">
         <v>606</v>
       </c>
@@ -10374,7 +10373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A305" t="s">
         <v>608</v>
       </c>
@@ -10388,7 +10387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A306" t="s">
         <v>610</v>
       </c>
@@ -10402,7 +10401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A307" t="s">
         <v>612</v>
       </c>
@@ -10416,7 +10415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A308" t="s">
         <v>614</v>
       </c>
@@ -10430,7 +10429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A309" t="s">
         <v>616</v>
       </c>
@@ -10444,7 +10443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A310" t="s">
         <v>618</v>
       </c>
@@ -10458,7 +10457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A311" t="s">
         <v>620</v>
       </c>
@@ -10472,7 +10471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A312" t="s">
         <v>622</v>
       </c>
@@ -10486,7 +10485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A313" t="s">
         <v>624</v>
       </c>
@@ -10500,7 +10499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A314" t="s">
         <v>626</v>
       </c>
@@ -10514,7 +10513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A315" t="s">
         <v>628</v>
       </c>
@@ -10528,7 +10527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A316" t="s">
         <v>630</v>
       </c>
@@ -10542,7 +10541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A317" t="s">
         <v>632</v>
       </c>
@@ -10556,7 +10555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A318" t="s">
         <v>634</v>
       </c>
@@ -10570,7 +10569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A319" t="s">
         <v>636</v>
       </c>
@@ -10584,7 +10583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A320" t="s">
         <v>637</v>
       </c>
@@ -10598,7 +10597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A321" t="s">
         <v>639</v>
       </c>
@@ -10612,7 +10611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A322" t="s">
         <v>641</v>
       </c>
@@ -10626,7 +10625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A323" t="s">
         <v>643</v>
       </c>
@@ -10640,7 +10639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A324" t="s">
         <v>645</v>
       </c>
@@ -10654,7 +10653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A325" t="s">
         <v>647</v>
       </c>
@@ -10668,7 +10667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A326" t="s">
         <v>649</v>
       </c>
@@ -10682,7 +10681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A327" t="s">
         <v>651</v>
       </c>
@@ -10696,7 +10695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A328" t="s">
         <v>653</v>
       </c>
@@ -10710,7 +10709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A329" t="s">
         <v>655</v>
       </c>
@@ -10724,7 +10723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A330" t="s">
         <v>657</v>
       </c>
@@ -10738,7 +10737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A331" t="s">
         <v>659</v>
       </c>
@@ -10752,7 +10751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A332" t="s">
         <v>661</v>
       </c>
@@ -10766,7 +10765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A333" t="s">
         <v>663</v>
       </c>
@@ -10780,7 +10779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A334" t="s">
         <v>665</v>
       </c>
@@ -10794,7 +10793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A335" t="s">
         <v>667</v>
       </c>
@@ -10808,7 +10807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A336" t="s">
         <v>669</v>
       </c>
@@ -10822,7 +10821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A337" t="s">
         <v>671</v>
       </c>
@@ -10836,7 +10835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A338" t="s">
         <v>673</v>
       </c>
@@ -10850,7 +10849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A339" t="s">
         <v>675</v>
       </c>
@@ -10864,7 +10863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A340" t="s">
         <v>677</v>
       </c>
@@ -10878,7 +10877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A341" t="s">
         <v>679</v>
       </c>
@@ -10892,7 +10891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A342" t="s">
         <v>681</v>
       </c>
@@ -10906,7 +10905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A343" t="s">
         <v>683</v>
       </c>
@@ -10920,7 +10919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A344" t="s">
         <v>685</v>
       </c>
@@ -10934,7 +10933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A345" t="s">
         <v>687</v>
       </c>
@@ -10948,7 +10947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A346" t="s">
         <v>689</v>
       </c>
@@ -10962,7 +10961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A347" t="s">
         <v>691</v>
       </c>
@@ -10976,7 +10975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A348" t="s">
         <v>693</v>
       </c>
@@ -10990,7 +10989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A349" t="s">
         <v>695</v>
       </c>
@@ -11004,7 +11003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A350" t="s">
         <v>697</v>
       </c>
@@ -11018,7 +11017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A351" t="s">
         <v>699</v>
       </c>
@@ -11032,7 +11031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A352" t="s">
         <v>701</v>
       </c>
@@ -11046,7 +11045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A353" t="s">
         <v>703</v>
       </c>
@@ -11060,7 +11059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A354" t="s">
         <v>705</v>
       </c>
@@ -11074,7 +11073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A355" t="s">
         <v>707</v>
       </c>
@@ -11088,7 +11087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A356" t="s">
         <v>709</v>
       </c>
@@ -11102,7 +11101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A357" t="s">
         <v>711</v>
       </c>
@@ -11116,7 +11115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A358" t="s">
         <v>713</v>
       </c>
@@ -11130,7 +11129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A359" t="s">
         <v>715</v>
       </c>
@@ -11144,7 +11143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A360" t="s">
         <v>717</v>
       </c>
@@ -11158,7 +11157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A361" t="s">
         <v>719</v>
       </c>
@@ -11172,7 +11171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A362" t="s">
         <v>721</v>
       </c>
@@ -11186,7 +11185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A363" t="s">
         <v>723</v>
       </c>
@@ -11200,7 +11199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A364" t="s">
         <v>725</v>
       </c>
@@ -11214,7 +11213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A365" t="s">
         <v>727</v>
       </c>
@@ -11228,7 +11227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A366" t="s">
         <v>729</v>
       </c>
@@ -11242,7 +11241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A367" t="s">
         <v>731</v>
       </c>
@@ -11256,7 +11255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A368" t="s">
         <v>733</v>
       </c>
@@ -11270,7 +11269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A369" t="s">
         <v>735</v>
       </c>
@@ -11284,7 +11283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A370" t="s">
         <v>737</v>
       </c>
@@ -11298,7 +11297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A371" t="s">
         <v>739</v>
       </c>
@@ -11312,7 +11311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A372" t="s">
         <v>741</v>
       </c>
@@ -11326,7 +11325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A373" t="s">
         <v>743</v>
       </c>
@@ -11340,7 +11339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A374" t="s">
         <v>745</v>
       </c>
@@ -11354,7 +11353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A375" t="s">
         <v>747</v>
       </c>
@@ -11368,7 +11367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A376" t="s">
         <v>749</v>
       </c>
@@ -11382,7 +11381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A377" t="s">
         <v>751</v>
       </c>
@@ -11396,7 +11395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A378" t="s">
         <v>753</v>
       </c>
@@ -11410,7 +11409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A379" t="s">
         <v>755</v>
       </c>
@@ -11424,7 +11423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A380" t="s">
         <v>757</v>
       </c>
@@ -11438,7 +11437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A381" t="s">
         <v>759</v>
       </c>
@@ -11452,7 +11451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A382" t="s">
         <v>761</v>
       </c>
@@ -11466,7 +11465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A383" t="s">
         <v>763</v>
       </c>
@@ -11480,7 +11479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A384" t="s">
         <v>765</v>
       </c>
@@ -11494,7 +11493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A385" t="s">
         <v>767</v>
       </c>
@@ -11508,7 +11507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A386" t="s">
         <v>769</v>
       </c>
@@ -11522,7 +11521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A387" t="s">
         <v>771</v>
       </c>
@@ -11536,7 +11535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A388" t="s">
         <v>773</v>
       </c>
@@ -11550,7 +11549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A389" t="s">
         <v>775</v>
       </c>
@@ -11564,7 +11563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A390" t="s">
         <v>777</v>
       </c>
@@ -11578,7 +11577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A391" t="s">
         <v>779</v>
       </c>
@@ -11592,7 +11591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A392" t="s">
         <v>781</v>
       </c>
@@ -11606,7 +11605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A393" t="s">
         <v>783</v>
       </c>
@@ -11620,7 +11619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A394" t="s">
         <v>784</v>
       </c>
@@ -11634,7 +11633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A395" t="s">
         <v>786</v>
       </c>
@@ -11648,7 +11647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A396" t="s">
         <v>788</v>
       </c>
@@ -11662,7 +11661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A397" t="s">
         <v>790</v>
       </c>
@@ -11676,7 +11675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A398" t="s">
         <v>792</v>
       </c>
@@ -11690,7 +11689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A399" t="s">
         <v>794</v>
       </c>
@@ -11704,7 +11703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A400" t="s">
         <v>796</v>
       </c>
@@ -11718,7 +11717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A401" t="s">
         <v>798</v>
       </c>
@@ -11732,7 +11731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A402" t="s">
         <v>800</v>
       </c>
@@ -11746,7 +11745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A403" t="s">
         <v>802</v>
       </c>
@@ -11760,7 +11759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A404" t="s">
         <v>804</v>
       </c>
@@ -11774,7 +11773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A405" t="s">
         <v>806</v>
       </c>
@@ -11788,7 +11787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A406" t="s">
         <v>808</v>
       </c>
@@ -11802,7 +11801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A407" t="s">
         <v>810</v>
       </c>
@@ -11816,7 +11815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A408" t="s">
         <v>812</v>
       </c>
@@ -11830,7 +11829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A409" t="s">
         <v>814</v>
       </c>
@@ -11844,7 +11843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A410" t="s">
         <v>816</v>
       </c>
@@ -11858,7 +11857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A411" t="s">
         <v>818</v>
       </c>
@@ -11872,7 +11871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A412" t="s">
         <v>820</v>
       </c>
@@ -11886,7 +11885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A413" t="s">
         <v>822</v>
       </c>
@@ -11900,7 +11899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A414" t="s">
         <v>824</v>
       </c>
@@ -11914,7 +11913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A415" t="s">
         <v>826</v>
       </c>
@@ -11928,7 +11927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A416" t="s">
         <v>828</v>
       </c>
@@ -11942,7 +11941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A417" t="s">
         <v>830</v>
       </c>
@@ -11956,7 +11955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A418" t="s">
         <v>831</v>
       </c>
@@ -11970,7 +11969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A419" t="s">
         <v>833</v>
       </c>
@@ -11984,7 +11983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A420" t="s">
         <v>835</v>
       </c>
@@ -11998,7 +11997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A421" t="s">
         <v>837</v>
       </c>
@@ -12012,7 +12011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A422" t="s">
         <v>839</v>
       </c>
@@ -12026,7 +12025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A423" t="s">
         <v>841</v>
       </c>
@@ -12040,7 +12039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A424" t="s">
         <v>843</v>
       </c>
@@ -12054,7 +12053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A425" t="s">
         <v>845</v>
       </c>
@@ -12068,7 +12067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A426" t="s">
         <v>847</v>
       </c>
@@ -12082,7 +12081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A427" t="s">
         <v>849</v>
       </c>
@@ -12096,7 +12095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A428" t="s">
         <v>851</v>
       </c>
@@ -12110,7 +12109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A429" t="s">
         <v>853</v>
       </c>
@@ -12124,7 +12123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A430" t="s">
         <v>855</v>
       </c>
@@ -12138,7 +12137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A431" t="s">
         <v>857</v>
       </c>
@@ -12152,7 +12151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A432" t="s">
         <v>859</v>
       </c>
@@ -12166,7 +12165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A433" t="s">
         <v>861</v>
       </c>
@@ -12180,7 +12179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A434" t="s">
         <v>863</v>
       </c>
@@ -12194,7 +12193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A435" t="s">
         <v>865</v>
       </c>
@@ -12208,7 +12207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A436" t="s">
         <v>867</v>
       </c>
@@ -12222,7 +12221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A437" t="s">
         <v>869</v>
       </c>
@@ -12236,7 +12235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A438" t="s">
         <v>871</v>
       </c>
@@ -12250,7 +12249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A439" t="s">
         <v>873</v>
       </c>
@@ -12264,7 +12263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A440" t="s">
         <v>875</v>
       </c>
@@ -12278,7 +12277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A441" t="s">
         <v>877</v>
       </c>
@@ -12292,7 +12291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A442" t="s">
         <v>879</v>
       </c>
@@ -12306,7 +12305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A443" t="s">
         <v>881</v>
       </c>
@@ -12320,7 +12319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A444" t="s">
         <v>883</v>
       </c>
@@ -12334,7 +12333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A445" t="s">
         <v>885</v>
       </c>
@@ -12348,7 +12347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A446" t="s">
         <v>887</v>
       </c>
@@ -12362,7 +12361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A447" t="s">
         <v>889</v>
       </c>
@@ -12376,7 +12375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A448" t="s">
         <v>891</v>
       </c>
@@ -12390,7 +12389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A449" t="s">
         <v>893</v>
       </c>
@@ -12404,7 +12403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A450" t="s">
         <v>895</v>
       </c>
@@ -12418,7 +12417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A451" t="s">
         <v>897</v>
       </c>
@@ -12432,7 +12431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A452" t="s">
         <v>899</v>
       </c>
@@ -12446,7 +12445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A453" t="s">
         <v>901</v>
       </c>
@@ -12460,7 +12459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A454" t="s">
         <v>903</v>
       </c>
@@ -12474,7 +12473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A455" t="s">
         <v>905</v>
       </c>
@@ -12488,7 +12487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A456" t="s">
         <v>907</v>
       </c>
@@ -12502,7 +12501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A457" t="s">
         <v>909</v>
       </c>
@@ -12516,7 +12515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A458" t="s">
         <v>911</v>
       </c>
@@ -12530,7 +12529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A459" t="s">
         <v>913</v>
       </c>
@@ -12544,7 +12543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A460" t="s">
         <v>915</v>
       </c>
@@ -12558,7 +12557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A461" t="s">
         <v>917</v>
       </c>
@@ -12572,7 +12571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A462" t="s">
         <v>919</v>
       </c>
@@ -12586,7 +12585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A463" t="s">
         <v>921</v>
       </c>
@@ -12600,7 +12599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A464" t="s">
         <v>923</v>
       </c>
@@ -12614,7 +12613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A465" t="s">
         <v>925</v>
       </c>
@@ -12628,7 +12627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A466" t="s">
         <v>927</v>
       </c>
@@ -12642,7 +12641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A467" t="s">
         <v>929</v>
       </c>
@@ -12656,7 +12655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A468" t="s">
         <v>931</v>
       </c>
@@ -12670,7 +12669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A469" t="s">
         <v>933</v>
       </c>
@@ -12684,7 +12683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A470" t="s">
         <v>935</v>
       </c>
@@ -12698,7 +12697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A471" t="s">
         <v>937</v>
       </c>
@@ -12712,7 +12711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A472" t="s">
         <v>939</v>
       </c>
@@ -12726,7 +12725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A473" t="s">
         <v>941</v>
       </c>
@@ -12740,7 +12739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A474" t="s">
         <v>943</v>
       </c>
@@ -12754,7 +12753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A475" t="s">
         <v>945</v>
       </c>
@@ -12768,7 +12767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A476" t="s">
         <v>947</v>
       </c>
@@ -12782,7 +12781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A477" t="s">
         <v>949</v>
       </c>
@@ -12796,7 +12795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A478" t="s">
         <v>950</v>
       </c>
@@ -12810,7 +12809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A479" t="s">
         <v>952</v>
       </c>
@@ -12824,7 +12823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A480" t="s">
         <v>954</v>
       </c>
@@ -12838,7 +12837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A481" t="s">
         <v>956</v>
       </c>
@@ -12852,7 +12851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A482" t="s">
         <v>958</v>
       </c>
@@ -12866,7 +12865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A483" t="s">
         <v>960</v>
       </c>
@@ -12880,7 +12879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A484" t="s">
         <v>962</v>
       </c>
@@ -12894,7 +12893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A485" t="s">
         <v>964</v>
       </c>
@@ -12908,7 +12907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A486" t="s">
         <v>966</v>
       </c>
@@ -12922,7 +12921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A487" t="s">
         <v>968</v>
       </c>
@@ -12936,7 +12935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A488" t="s">
         <v>970</v>
       </c>
@@ -12950,7 +12949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A489" t="s">
         <v>972</v>
       </c>
@@ -12964,7 +12963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A490" t="s">
         <v>974</v>
       </c>
@@ -12978,7 +12977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A491" t="s">
         <v>976</v>
       </c>
@@ -12992,7 +12991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A492" t="s">
         <v>978</v>
       </c>
@@ -13006,7 +13005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A493" t="s">
         <v>980</v>
       </c>
@@ -13020,7 +13019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A494" t="s">
         <v>982</v>
       </c>
@@ -13034,7 +13033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A495" t="s">
         <v>984</v>
       </c>
@@ -13048,7 +13047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A496" t="s">
         <v>986</v>
       </c>
@@ -13062,7 +13061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A497" t="s">
         <v>988</v>
       </c>
@@ -13076,7 +13075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A498" t="s">
         <v>990</v>
       </c>
@@ -13090,7 +13089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A499" t="s">
         <v>992</v>
       </c>
@@ -13104,7 +13103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A500" t="s">
         <v>994</v>
       </c>
@@ -13118,7 +13117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A501" t="s">
         <v>996</v>
       </c>
@@ -13132,7 +13131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A502" t="s">
         <v>998</v>
       </c>
@@ -13146,7 +13145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A503" t="s">
         <v>1000</v>
       </c>
@@ -13160,7 +13159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A504" t="s">
         <v>1002</v>
       </c>
@@ -13174,7 +13173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A505" t="s">
         <v>1004</v>
       </c>
@@ -13188,7 +13187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A506" t="s">
         <v>1006</v>
       </c>
@@ -13202,7 +13201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A507" t="s">
         <v>1008</v>
       </c>
@@ -13216,7 +13215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A508" t="s">
         <v>1010</v>
       </c>
@@ -13230,7 +13229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A509" t="s">
         <v>1012</v>
       </c>
@@ -13244,7 +13243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A510" t="s">
         <v>1014</v>
       </c>
@@ -13258,7 +13257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="511" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A511" t="s">
         <v>1016</v>
       </c>
@@ -13272,7 +13271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A512" t="s">
         <v>1018</v>
       </c>
@@ -13286,7 +13285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A513" t="s">
         <v>1020</v>
       </c>
@@ -13300,7 +13299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A514" t="s">
         <v>1022</v>
       </c>
@@ -13314,7 +13313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A515" t="s">
         <v>1024</v>
       </c>
@@ -13328,7 +13327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A516" t="s">
         <v>1026</v>
       </c>
@@ -13342,7 +13341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A517" t="s">
         <v>1028</v>
       </c>
@@ -13356,7 +13355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A518" t="s">
         <v>1030</v>
       </c>
@@ -13370,7 +13369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A519" t="s">
         <v>1032</v>
       </c>
@@ -13384,7 +13383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A520" t="s">
         <v>1034</v>
       </c>
@@ -13398,7 +13397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A521" t="s">
         <v>1036</v>
       </c>
@@ -13412,7 +13411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A522" t="s">
         <v>1037</v>
       </c>
@@ -13426,7 +13425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A523" t="s">
         <v>1039</v>
       </c>
@@ -13440,7 +13439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A524" t="s">
         <v>1041</v>
       </c>
@@ -13454,7 +13453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A525" t="s">
         <v>1043</v>
       </c>
@@ -13468,7 +13467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A526" t="s">
         <v>1045</v>
       </c>
@@ -13482,7 +13481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A527" t="s">
         <v>1047</v>
       </c>
@@ -13496,7 +13495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A528" t="s">
         <v>1049</v>
       </c>
@@ -13510,7 +13509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A529" t="s">
         <v>1051</v>
       </c>
@@ -13524,7 +13523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A530" t="s">
         <v>1053</v>
       </c>
@@ -13538,7 +13537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="531" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A531" t="s">
         <v>1055</v>
       </c>
@@ -13552,7 +13551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="532" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A532" t="s">
         <v>1057</v>
       </c>
@@ -13566,7 +13565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A533" t="s">
         <v>1059</v>
       </c>
@@ -13580,7 +13579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A534" t="s">
         <v>1061</v>
       </c>
@@ -13594,7 +13593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A535" t="s">
         <v>1063</v>
       </c>
@@ -13608,7 +13607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A536" t="s">
         <v>1065</v>
       </c>
@@ -13622,7 +13621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A537" t="s">
         <v>1067</v>
       </c>
@@ -13636,7 +13635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A538" t="s">
         <v>1069</v>
       </c>
@@ -13650,7 +13649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A539" t="s">
         <v>1071</v>
       </c>
@@ -13664,7 +13663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A540" t="s">
         <v>1073</v>
       </c>
@@ -13678,7 +13677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A541" t="s">
         <v>1075</v>
       </c>
@@ -13692,7 +13691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A542" t="s">
         <v>1077</v>
       </c>
@@ -13706,7 +13705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A543" t="s">
         <v>1079</v>
       </c>
@@ -13720,7 +13719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="544" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A544" t="s">
         <v>1081</v>
       </c>
@@ -13734,7 +13733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A545" t="s">
         <v>1083</v>
       </c>
@@ -13748,7 +13747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="546" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A546" t="s">
         <v>1085</v>
       </c>
@@ -13762,7 +13761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A547" t="s">
         <v>1087</v>
       </c>
@@ -13776,7 +13775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A548" t="s">
         <v>1089</v>
       </c>
@@ -13790,7 +13789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A549" t="s">
         <v>1091</v>
       </c>
@@ -13804,7 +13803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A550" t="s">
         <v>1093</v>
       </c>
@@ -13818,7 +13817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A551" t="s">
         <v>1095</v>
       </c>
@@ -13832,7 +13831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A552" t="s">
         <v>1097</v>
       </c>
@@ -13846,7 +13845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A553" t="s">
         <v>1099</v>
       </c>
@@ -13860,7 +13859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A554" t="s">
         <v>1101</v>
       </c>
@@ -13874,7 +13873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A555" t="s">
         <v>1103</v>
       </c>
@@ -13888,7 +13887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A556" t="s">
         <v>1105</v>
       </c>
@@ -13902,7 +13901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A557" t="s">
         <v>1107</v>
       </c>
@@ -13916,7 +13915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A558" t="s">
         <v>1109</v>
       </c>
@@ -13930,7 +13929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A559" t="s">
         <v>1111</v>
       </c>
@@ -13944,7 +13943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="560" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A560" t="s">
         <v>1113</v>
       </c>
@@ -13958,7 +13957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="561" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A561" t="s">
         <v>1115</v>
       </c>
@@ -13972,7 +13971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="562" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A562" t="s">
         <v>1117</v>
       </c>
@@ -13986,7 +13985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="563" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A563" t="s">
         <v>1119</v>
       </c>
@@ -14000,7 +13999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A564" t="s">
         <v>1121</v>
       </c>
@@ -14014,7 +14013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="565" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A565" t="s">
         <v>1123</v>
       </c>
@@ -14028,7 +14027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A566" t="s">
         <v>1124</v>
       </c>
@@ -14042,7 +14041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="567" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A567" t="s">
         <v>1126</v>
       </c>
@@ -14056,7 +14055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="568" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A568" t="s">
         <v>1128</v>
       </c>
@@ -14070,7 +14069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="569" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A569" t="s">
         <v>1130</v>
       </c>
@@ -14084,7 +14083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="570" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A570" t="s">
         <v>1132</v>
       </c>
@@ -14098,7 +14097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="571" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="571" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A571" t="s">
         <v>1134</v>
       </c>
@@ -14112,7 +14111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="572" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A572" t="s">
         <v>1136</v>
       </c>
@@ -14126,7 +14125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="573" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="573" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A573" t="s">
         <v>1138</v>
       </c>
@@ -14140,7 +14139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="574" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A574" t="s">
         <v>1140</v>
       </c>
@@ -14154,7 +14153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="575" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A575" t="s">
         <v>1142</v>
       </c>
@@ -14168,7 +14167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="576" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A576" t="s">
         <v>1144</v>
       </c>
@@ -14182,7 +14181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="577" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="577" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A577" t="s">
         <v>1146</v>
       </c>
@@ -14196,7 +14195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="578" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A578" t="s">
         <v>1148</v>
       </c>
@@ -14210,7 +14209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="579" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A579" t="s">
         <v>1150</v>
       </c>
@@ -14224,7 +14223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="580" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A580" t="s">
         <v>1152</v>
       </c>
@@ -14238,7 +14237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="581" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A581" t="s">
         <v>1154</v>
       </c>
@@ -14252,7 +14251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="582" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A582" t="s">
         <v>1156</v>
       </c>
@@ -14266,7 +14265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="583" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A583" t="s">
         <v>1158</v>
       </c>
@@ -14280,7 +14279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="584" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="584" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A584" t="s">
         <v>1160</v>
       </c>
@@ -14294,7 +14293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="585" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="585" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A585" t="s">
         <v>1162</v>
       </c>
@@ -14308,7 +14307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="586" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A586" t="s">
         <v>1164</v>
       </c>
@@ -14322,7 +14321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="587" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A587" t="s">
         <v>1166</v>
       </c>
@@ -14336,7 +14335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="588" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A588" t="s">
         <v>1168</v>
       </c>
@@ -14350,7 +14349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="589" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A589" t="s">
         <v>1169</v>
       </c>
@@ -14364,7 +14363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="590" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A590" t="s">
         <v>1170</v>
       </c>
@@ -14378,7 +14377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="591" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A591" t="s">
         <v>1172</v>
       </c>
@@ -14392,7 +14391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="592" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A592" t="s">
         <v>1174</v>
       </c>
@@ -14406,7 +14405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="593" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A593" t="s">
         <v>1176</v>
       </c>
@@ -14420,7 +14419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="594" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="594" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A594" t="s">
         <v>1178</v>
       </c>
@@ -14434,7 +14433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="595" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A595" t="s">
         <v>1180</v>
       </c>
@@ -14448,7 +14447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="596" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A596" t="s">
         <v>1182</v>
       </c>
@@ -14462,7 +14461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="597" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A597" t="s">
         <v>1184</v>
       </c>
@@ -14476,7 +14475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="598" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A598" t="s">
         <v>1186</v>
       </c>
@@ -14490,7 +14489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="599" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="599" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A599" t="s">
         <v>1188</v>
       </c>
@@ -14504,7 +14503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="600" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A600" t="s">
         <v>1190</v>
       </c>
@@ -14518,7 +14517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="601" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A601" t="s">
         <v>1192</v>
       </c>
@@ -14532,7 +14531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="602" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A602" t="s">
         <v>1194</v>
       </c>
@@ -14546,7 +14545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="603" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A603" t="s">
         <v>1196</v>
       </c>
@@ -14560,7 +14559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="604" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A604" t="s">
         <v>1198</v>
       </c>
@@ -14574,7 +14573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="605" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A605" t="s">
         <v>1200</v>
       </c>
@@ -14588,7 +14587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="606" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A606" t="s">
         <v>1202</v>
       </c>
@@ -14602,7 +14601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="607" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A607" t="s">
         <v>1203</v>
       </c>
@@ -14616,7 +14615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="608" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A608" t="s">
         <v>1205</v>
       </c>
@@ -14630,7 +14629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="609" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="609" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A609" t="s">
         <v>1207</v>
       </c>
@@ -14644,7 +14643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="610" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A610" t="s">
         <v>1209</v>
       </c>
@@ -14658,7 +14657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="611" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A611" t="s">
         <v>1210</v>
       </c>
@@ -14672,7 +14671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="612" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A612" t="s">
         <v>1212</v>
       </c>
@@ -14686,7 +14685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="613" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="613" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A613" t="s">
         <v>1214</v>
       </c>
@@ -14700,7 +14699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="614" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A614" t="s">
         <v>1216</v>
       </c>
@@ -14714,7 +14713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="615" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A615" t="s">
         <v>1218</v>
       </c>
@@ -14728,7 +14727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="616" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A616" t="s">
         <v>1220</v>
       </c>
@@ -14742,7 +14741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="617" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A617" t="s">
         <v>1222</v>
       </c>
@@ -14756,7 +14755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="618" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A618" t="s">
         <v>1224</v>
       </c>
@@ -14770,7 +14769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="619" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A619" t="s">
         <v>1226</v>
       </c>
@@ -14784,7 +14783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="620" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A620" t="s">
         <v>1228</v>
       </c>
@@ -14798,7 +14797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="621" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="621" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A621" t="s">
         <v>1230</v>
       </c>
@@ -14812,7 +14811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="622" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A622" t="s">
         <v>1232</v>
       </c>
@@ -14826,7 +14825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="623" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A623" t="s">
         <v>1234</v>
       </c>
@@ -14840,7 +14839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="624" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A624" t="s">
         <v>1236</v>
       </c>
@@ -14854,7 +14853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="625" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A625" t="s">
         <v>1238</v>
       </c>
@@ -14868,7 +14867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="626" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A626" t="s">
         <v>1240</v>
       </c>
@@ -14882,7 +14881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="627" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A627" t="s">
         <v>1242</v>
       </c>
@@ -14896,7 +14895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="628" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A628" t="s">
         <v>1244</v>
       </c>
@@ -14910,7 +14909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="629" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A629" t="s">
         <v>1246</v>
       </c>
@@ -14924,7 +14923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="630" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A630" t="s">
         <v>1248</v>
       </c>
@@ -14938,7 +14937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="631" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A631" t="s">
         <v>1250</v>
       </c>
@@ -14952,7 +14951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="632" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A632" t="s">
         <v>1252</v>
       </c>
@@ -14966,7 +14965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="633" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A633" t="s">
         <v>1254</v>
       </c>
@@ -14980,7 +14979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="634" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A634" t="s">
         <v>1256</v>
       </c>
@@ -14994,7 +14993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="635" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A635" t="s">
         <v>1258</v>
       </c>
@@ -15008,7 +15007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="636" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A636" t="s">
         <v>1260</v>
       </c>
@@ -15022,7 +15021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="637" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A637" t="s">
         <v>1262</v>
       </c>
@@ -15036,7 +15035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="638" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A638" t="s">
         <v>1264</v>
       </c>
@@ -15050,7 +15049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="639" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A639" t="s">
         <v>1266</v>
       </c>
@@ -15064,7 +15063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="640" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A640" t="s">
         <v>1268</v>
       </c>
@@ -15078,7 +15077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="641" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A641" t="s">
         <v>1270</v>
       </c>
@@ -15092,7 +15091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="642" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A642" t="s">
         <v>1272</v>
       </c>
@@ -15106,7 +15105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="643" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A643" t="s">
         <v>1274</v>
       </c>
@@ -15120,7 +15119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="644" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A644" t="s">
         <v>1276</v>
       </c>
@@ -15134,7 +15133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="645" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A645" t="s">
         <v>1278</v>
       </c>
@@ -15148,7 +15147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="646" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A646" t="s">
         <v>1280</v>
       </c>
@@ -15162,7 +15161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="647" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A647" t="s">
         <v>1282</v>
       </c>
@@ -15176,7 +15175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="648" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A648" t="s">
         <v>1284</v>
       </c>
@@ -15190,7 +15189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="649" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A649" t="s">
         <v>1286</v>
       </c>
@@ -15204,7 +15203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="650" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A650" t="s">
         <v>1288</v>
       </c>
@@ -15218,7 +15217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="651" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A651" t="s">
         <v>1290</v>
       </c>
@@ -15232,7 +15231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="652" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A652" t="s">
         <v>1292</v>
       </c>
@@ -15246,7 +15245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="653" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A653" t="s">
         <v>1294</v>
       </c>
@@ -15260,7 +15259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="654" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A654" t="s">
         <v>1296</v>
       </c>
@@ -15274,7 +15273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="655" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A655" t="s">
         <v>1297</v>
       </c>
@@ -15288,7 +15287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="656" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A656" t="s">
         <v>1299</v>
       </c>
@@ -15302,7 +15301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="657" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A657" t="s">
         <v>1301</v>
       </c>
@@ -15316,7 +15315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="658" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A658" t="s">
         <v>1303</v>
       </c>
@@ -15330,7 +15329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="659" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A659" t="s">
         <v>1305</v>
       </c>
@@ -15344,7 +15343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="660" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A660" t="s">
         <v>1307</v>
       </c>
@@ -15358,7 +15357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="661" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A661" t="s">
         <v>1308</v>
       </c>
@@ -15372,7 +15371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="662" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="662" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A662" t="s">
         <v>1310</v>
       </c>
@@ -15386,7 +15385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="663" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A663" t="s">
         <v>1312</v>
       </c>
@@ -15400,7 +15399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="664" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A664" t="s">
         <v>1314</v>
       </c>
@@ -15414,7 +15413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="665" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="665" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A665" t="s">
         <v>1316</v>
       </c>
@@ -15428,7 +15427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="666" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A666" t="s">
         <v>1318</v>
       </c>
@@ -15442,7 +15441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="667" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A667" t="s">
         <v>1320</v>
       </c>
@@ -15456,7 +15455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="668" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A668" t="s">
         <v>1322</v>
       </c>
@@ -15470,7 +15469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="669" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A669" t="s">
         <v>1324</v>
       </c>
@@ -15484,7 +15483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="670" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A670" t="s">
         <v>1326</v>
       </c>
@@ -15498,7 +15497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="671" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="671" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A671" t="s">
         <v>1327</v>
       </c>
@@ -15512,7 +15511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="672" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="672" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A672" t="s">
         <v>1329</v>
       </c>
@@ -15526,7 +15525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="673" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A673" t="s">
         <v>1331</v>
       </c>
@@ -15540,7 +15539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="674" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="674" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A674" t="s">
         <v>1333</v>
       </c>
@@ -15554,7 +15553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="675" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="675" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A675" t="s">
         <v>1335</v>
       </c>
@@ -15568,7 +15567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="676" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="676" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A676" t="s">
         <v>1336</v>
       </c>
@@ -15582,7 +15581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="677" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="677" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A677" t="s">
         <v>1338</v>
       </c>
@@ -15596,7 +15595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="678" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A678" t="s">
         <v>1340</v>
       </c>
@@ -15610,7 +15609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="679" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="679" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A679" t="s">
         <v>1342</v>
       </c>
@@ -15624,7 +15623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="680" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A680" t="s">
         <v>1344</v>
       </c>
@@ -15638,7 +15637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="681" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="681" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A681" t="s">
         <v>1346</v>
       </c>
@@ -15652,7 +15651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="682" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="682" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A682" t="s">
         <v>1348</v>
       </c>
@@ -15666,7 +15665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="683" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="683" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A683" t="s">
         <v>1350</v>
       </c>
@@ -15680,7 +15679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="684" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="684" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A684" t="s">
         <v>1352</v>
       </c>
@@ -15694,7 +15693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="685" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="685" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A685" t="s">
         <v>1354</v>
       </c>
@@ -15708,7 +15707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="686" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="686" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A686" t="s">
         <v>1356</v>
       </c>
@@ -15722,7 +15721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="687" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="687" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A687" t="s">
         <v>1358</v>
       </c>
@@ -15736,7 +15735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="688" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="688" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A688" t="s">
         <v>1360</v>
       </c>
@@ -15750,7 +15749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="689" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="689" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A689" t="s">
         <v>1362</v>
       </c>
@@ -15764,7 +15763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="690" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="690" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A690" t="s">
         <v>1364</v>
       </c>
@@ -15778,7 +15777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="691" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="691" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A691" t="s">
         <v>1366</v>
       </c>
@@ -15792,7 +15791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="692" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="692" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A692" t="s">
         <v>1368</v>
       </c>
@@ -15806,7 +15805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="693" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="693" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A693" t="s">
         <v>1370</v>
       </c>
@@ -15820,7 +15819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="694" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="694" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A694" t="s">
         <v>1372</v>
       </c>
@@ -15834,7 +15833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="695" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="695" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A695" t="s">
         <v>1374</v>
       </c>
@@ -15848,7 +15847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="696" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="696" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A696" t="s">
         <v>1376</v>
       </c>
@@ -15862,7 +15861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="697" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A697" t="s">
         <v>1378</v>
       </c>
@@ -15876,7 +15875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="698" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="698" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A698" t="s">
         <v>1380</v>
       </c>
@@ -15890,7 +15889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="699" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="699" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A699" t="s">
         <v>1382</v>
       </c>
@@ -15904,7 +15903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="700" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="700" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A700" t="s">
         <v>1384</v>
       </c>
@@ -15918,7 +15917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="701" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="701" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A701" t="s">
         <v>1386</v>
       </c>
@@ -15932,7 +15931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="702" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="702" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A702" t="s">
         <v>1387</v>
       </c>
@@ -15946,7 +15945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="703" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="703" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A703" t="s">
         <v>1389</v>
       </c>
@@ -15960,7 +15959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="704" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="704" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A704" t="s">
         <v>1391</v>
       </c>
@@ -15974,7 +15973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="705" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="705" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A705" t="s">
         <v>1393</v>
       </c>
@@ -15988,7 +15987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="706" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="706" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A706" t="s">
         <v>1395</v>
       </c>
@@ -16002,7 +16001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="707" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="707" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A707" t="s">
         <v>1397</v>
       </c>
@@ -16016,7 +16015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="708" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="708" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A708" t="s">
         <v>1399</v>
       </c>
@@ -16030,7 +16029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="709" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="709" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A709" t="s">
         <v>1401</v>
       </c>
@@ -16044,7 +16043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="710" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="710" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A710" t="s">
         <v>1403</v>
       </c>
@@ -16058,7 +16057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="711" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="711" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A711" t="s">
         <v>1405</v>
       </c>
@@ -16072,7 +16071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="712" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="712" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A712" t="s">
         <v>1407</v>
       </c>
@@ -16086,7 +16085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="713" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="713" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A713" t="s">
         <v>1409</v>
       </c>
@@ -16100,7 +16099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="714" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="714" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A714" t="s">
         <v>1411</v>
       </c>
@@ -16114,7 +16113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="715" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="715" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A715" t="s">
         <v>1413</v>
       </c>
@@ -16128,7 +16127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="716" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="716" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A716" t="s">
         <v>1415</v>
       </c>
@@ -16142,7 +16141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="717" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="717" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A717" t="s">
         <v>1417</v>
       </c>
@@ -16156,7 +16155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="718" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="718" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A718" t="s">
         <v>1419</v>
       </c>
@@ -16170,7 +16169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="719" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="719" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A719" t="s">
         <v>1421</v>
       </c>
@@ -16184,7 +16183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="720" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="720" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A720" t="s">
         <v>1422</v>
       </c>
@@ -16198,7 +16197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="721" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="721" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A721" t="s">
         <v>1424</v>
       </c>
@@ -16212,7 +16211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="722" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="722" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A722" t="s">
         <v>1426</v>
       </c>
@@ -16226,7 +16225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="723" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="723" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A723" t="s">
         <v>1428</v>
       </c>
@@ -16240,7 +16239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="724" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="724" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A724" t="s">
         <v>1430</v>
       </c>
@@ -16254,7 +16253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="725" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="725" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A725" t="s">
         <v>1432</v>
       </c>
@@ -16268,7 +16267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="726" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="726" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A726" t="s">
         <v>1434</v>
       </c>
@@ -16282,7 +16281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="727" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="727" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A727" t="s">
         <v>1436</v>
       </c>
@@ -16296,7 +16295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="728" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="728" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A728" t="s">
         <v>1438</v>
       </c>
@@ -16310,7 +16309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="729" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="729" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A729" t="s">
         <v>1440</v>
       </c>
@@ -16324,7 +16323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="730" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="730" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A730" t="s">
         <v>1442</v>
       </c>
@@ -16338,7 +16337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="731" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="731" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A731" t="s">
         <v>1444</v>
       </c>
@@ -16352,7 +16351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="732" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="732" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A732" t="s">
         <v>1446</v>
       </c>
@@ -16366,7 +16365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="733" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="733" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A733" t="s">
         <v>1448</v>
       </c>
@@ -16380,7 +16379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="734" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="734" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A734" t="s">
         <v>1450</v>
       </c>
@@ -16394,7 +16393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="735" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="735" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A735" t="s">
         <v>1452</v>
       </c>
@@ -16408,7 +16407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="736" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="736" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A736" t="s">
         <v>1454</v>
       </c>
@@ -16422,7 +16421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="737" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="737" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A737" t="s">
         <v>1456</v>
       </c>
@@ -16436,7 +16435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="738" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="738" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A738" t="s">
         <v>1458</v>
       </c>
@@ -16450,7 +16449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="739" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="739" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A739" t="s">
         <v>1460</v>
       </c>
@@ -16464,7 +16463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="740" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="740" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A740" t="s">
         <v>1462</v>
       </c>
@@ -16478,7 +16477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="741" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="741" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A741" t="s">
         <v>1464</v>
       </c>
@@ -16492,7 +16491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="742" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="742" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A742" t="s">
         <v>1465</v>
       </c>
@@ -16506,7 +16505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="743" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="743" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A743" t="s">
         <v>1467</v>
       </c>
@@ -16520,7 +16519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="744" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="744" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A744" t="s">
         <v>1469</v>
       </c>
@@ -16534,7 +16533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="745" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="745" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A745" t="s">
         <v>1471</v>
       </c>
@@ -16548,7 +16547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="746" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="746" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A746" t="s">
         <v>1473</v>
       </c>
@@ -16562,7 +16561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="747" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="747" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A747" t="s">
         <v>1475</v>
       </c>
@@ -16576,7 +16575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="748" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="748" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A748" t="s">
         <v>1477</v>
       </c>
@@ -16590,7 +16589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="749" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="749" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A749" t="s">
         <v>1479</v>
       </c>
@@ -16604,7 +16603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="750" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="750" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A750" t="s">
         <v>1481</v>
       </c>
@@ -16618,7 +16617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="751" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="751" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A751" t="s">
         <v>1483</v>
       </c>
@@ -16632,7 +16631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="752" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="752" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A752" t="s">
         <v>1485</v>
       </c>
@@ -16646,7 +16645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="753" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="753" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A753" t="s">
         <v>1487</v>
       </c>
@@ -16660,7 +16659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="754" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="754" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A754" t="s">
         <v>1489</v>
       </c>
@@ -16674,7 +16673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="755" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="755" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A755" t="s">
         <v>1491</v>
       </c>
@@ -16688,7 +16687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="756" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="756" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A756" t="s">
         <v>1493</v>
       </c>
@@ -16702,7 +16701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="757" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="757" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A757" t="s">
         <v>1495</v>
       </c>
@@ -16716,7 +16715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="758" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="758" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A758" t="s">
         <v>1497</v>
       </c>
@@ -16730,7 +16729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="759" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="759" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A759" t="s">
         <v>1499</v>
       </c>
@@ -16744,7 +16743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="760" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="760" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A760" t="s">
         <v>1501</v>
       </c>
@@ -16758,7 +16757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="761" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="761" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A761" t="s">
         <v>1503</v>
       </c>
@@ -16772,7 +16771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="762" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="762" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A762" t="s">
         <v>1505</v>
       </c>
@@ -16786,7 +16785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="763" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="763" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A763" t="s">
         <v>1507</v>
       </c>
@@ -16800,7 +16799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="764" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="764" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A764" t="s">
         <v>1509</v>
       </c>
@@ -16814,7 +16813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="765" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="765" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A765" t="s">
         <v>1511</v>
       </c>
@@ -16828,7 +16827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="766" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="766" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A766" t="s">
         <v>1513</v>
       </c>
@@ -16842,7 +16841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="767" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="767" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A767" t="s">
         <v>1515</v>
       </c>
@@ -16856,7 +16855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="768" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="768" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A768" t="s">
         <v>1517</v>
       </c>
@@ -16870,7 +16869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="769" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="769" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A769" t="s">
         <v>1519</v>
       </c>
@@ -16884,7 +16883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="770" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="770" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A770" t="s">
         <v>1521</v>
       </c>
@@ -16898,7 +16897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="771" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="771" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A771" t="s">
         <v>1523</v>
       </c>
@@ -16912,7 +16911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="772" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="772" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A772" t="s">
         <v>1525</v>
       </c>
@@ -16926,7 +16925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="773" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="773" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A773" t="s">
         <v>1527</v>
       </c>
@@ -16940,7 +16939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="774" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="774" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A774" t="s">
         <v>1529</v>
       </c>
@@ -16954,7 +16953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="775" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="775" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A775" t="s">
         <v>1531</v>
       </c>
@@ -16968,7 +16967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="776" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="776" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A776" t="s">
         <v>1533</v>
       </c>
@@ -16982,7 +16981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="777" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="777" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A777" t="s">
         <v>1535</v>
       </c>
@@ -16996,7 +16995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="778" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="778" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A778" t="s">
         <v>1537</v>
       </c>
@@ -17010,7 +17009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="779" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="779" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A779" t="s">
         <v>1539</v>
       </c>
@@ -17024,7 +17023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="780" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="780" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A780" t="s">
         <v>1541</v>
       </c>
@@ -17038,7 +17037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="781" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="781" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A781" t="s">
         <v>1543</v>
       </c>
@@ -17052,7 +17051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="782" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="782" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A782" t="s">
         <v>1545</v>
       </c>
@@ -17066,7 +17065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="783" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="783" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A783" t="s">
         <v>1547</v>
       </c>
@@ -17080,7 +17079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="784" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="784" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A784" t="s">
         <v>1549</v>
       </c>
@@ -17094,7 +17093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="785" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="785" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A785" t="s">
         <v>1551</v>
       </c>
@@ -17108,7 +17107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="786" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="786" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A786" t="s">
         <v>1553</v>
       </c>
@@ -17122,7 +17121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="787" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="787" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A787" t="s">
         <v>1555</v>
       </c>
@@ -17136,7 +17135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="788" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="788" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A788" t="s">
         <v>1557</v>
       </c>
@@ -17150,7 +17149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="789" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="789" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A789" t="s">
         <v>1559</v>
       </c>
@@ -17164,7 +17163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="790" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="790" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A790" t="s">
         <v>1561</v>
       </c>
@@ -17178,7 +17177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="791" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="791" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A791" t="s">
         <v>1563</v>
       </c>
@@ -17192,7 +17191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="792" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="792" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A792" t="s">
         <v>1565</v>
       </c>
@@ -17206,7 +17205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="793" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="793" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A793" t="s">
         <v>1567</v>
       </c>
@@ -17220,7 +17219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="794" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="794" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A794" t="s">
         <v>1569</v>
       </c>
@@ -17234,7 +17233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="795" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="795" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A795" t="s">
         <v>1571</v>
       </c>
@@ -17248,7 +17247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="796" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="796" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A796" t="s">
         <v>1573</v>
       </c>
@@ -17262,7 +17261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="797" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="797" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A797" t="s">
         <v>1575</v>
       </c>
@@ -17276,7 +17275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="798" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="798" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A798" t="s">
         <v>1577</v>
       </c>
@@ -17290,7 +17289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="799" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="799" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A799" t="s">
         <v>1578</v>
       </c>
@@ -17304,7 +17303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="800" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="800" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A800" t="s">
         <v>1580</v>
       </c>
@@ -17318,7 +17317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="801" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="801" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A801" t="s">
         <v>1582</v>
       </c>
@@ -17332,7 +17331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="802" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="802" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A802" t="s">
         <v>1584</v>
       </c>
@@ -17346,7 +17345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="803" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="803" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A803" t="s">
         <v>1586</v>
       </c>
@@ -17360,7 +17359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="804" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="804" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A804" t="s">
         <v>1588</v>
       </c>
@@ -17374,7 +17373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="805" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="805" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A805" t="s">
         <v>1590</v>
       </c>
@@ -17388,7 +17387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="806" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="806" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A806" t="s">
         <v>1592</v>
       </c>
@@ -17402,7 +17401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="807" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="807" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A807" t="s">
         <v>1594</v>
       </c>
@@ -17416,7 +17415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="808" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="808" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A808" t="s">
         <v>1596</v>
       </c>
@@ -17430,7 +17429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="809" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="809" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A809" t="s">
         <v>1598</v>
       </c>
@@ -17444,7 +17443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="810" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="810" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A810" t="s">
         <v>1600</v>
       </c>
@@ -17458,7 +17457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="811" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="811" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A811" t="s">
         <v>1602</v>
       </c>
@@ -17472,7 +17471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="812" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="812" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A812" t="s">
         <v>1604</v>
       </c>
@@ -17486,7 +17485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="813" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="813" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A813" t="s">
         <v>1606</v>
       </c>
@@ -17500,7 +17499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="814" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="814" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A814" t="s">
         <v>1608</v>
       </c>
@@ -17514,7 +17513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="815" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="815" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A815" t="s">
         <v>1610</v>
       </c>
@@ -17528,7 +17527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="816" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="816" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A816" t="s">
         <v>1612</v>
       </c>
@@ -17542,7 +17541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="817" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="817" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A817" t="s">
         <v>1614</v>
       </c>
@@ -17556,7 +17555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="818" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="818" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A818" t="s">
         <v>1616</v>
       </c>
@@ -17570,7 +17569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="819" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="819" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A819" t="s">
         <v>1618</v>
       </c>
@@ -17584,7 +17583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="820" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="820" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A820" t="s">
         <v>1620</v>
       </c>
@@ -17598,7 +17597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="821" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="821" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A821" t="s">
         <v>1622</v>
       </c>
@@ -17612,7 +17611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="822" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="822" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A822" t="s">
         <v>1624</v>
       </c>
@@ -17626,7 +17625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="823" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="823" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A823" t="s">
         <v>1626</v>
       </c>
@@ -17640,7 +17639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="824" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="824" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A824" t="s">
         <v>1628</v>
       </c>
@@ -17654,7 +17653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="825" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="825" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A825" t="s">
         <v>1630</v>
       </c>
@@ -17668,7 +17667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="826" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="826" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A826" t="s">
         <v>1632</v>
       </c>
@@ -17682,7 +17681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="827" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="827" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A827" t="s">
         <v>1634</v>
       </c>
@@ -17696,7 +17695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="828" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="828" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A828" t="s">
         <v>1636</v>
       </c>
@@ -17710,7 +17709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="829" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="829" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A829" t="s">
         <v>1638</v>
       </c>
@@ -17724,7 +17723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="830" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="830" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A830" t="s">
         <v>1640</v>
       </c>
@@ -17738,7 +17737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="831" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="831" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A831" t="s">
         <v>1642</v>
       </c>
@@ -17752,7 +17751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="832" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="832" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A832" t="s">
         <v>1644</v>
       </c>
@@ -17766,7 +17765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="833" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="833" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A833" t="s">
         <v>1646</v>
       </c>
@@ -17780,7 +17779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="834" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="834" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A834" t="s">
         <v>1648</v>
       </c>
@@ -17794,7 +17793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="835" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="835" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A835" t="s">
         <v>1650</v>
       </c>
@@ -17808,7 +17807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="836" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="836" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A836" t="s">
         <v>1652</v>
       </c>
@@ -17822,7 +17821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="837" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="837" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A837" t="s">
         <v>1654</v>
       </c>
@@ -17836,7 +17835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="838" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="838" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A838" t="s">
         <v>1656</v>
       </c>
@@ -17850,7 +17849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="839" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="839" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A839" t="s">
         <v>1658</v>
       </c>
@@ -17864,7 +17863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="840" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="840" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A840" t="s">
         <v>1660</v>
       </c>
@@ -17878,7 +17877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="841" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="841" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A841" t="s">
         <v>1662</v>
       </c>
@@ -17892,7 +17891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="842" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="842" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A842" t="s">
         <v>1664</v>
       </c>
@@ -17906,7 +17905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="843" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="843" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A843" t="s">
         <v>1666</v>
       </c>
@@ -17920,7 +17919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="844" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="844" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A844" t="s">
         <v>1668</v>
       </c>
@@ -17934,7 +17933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="845" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="845" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A845" t="s">
         <v>1670</v>
       </c>
@@ -17948,7 +17947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="846" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="846" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A846" t="s">
         <v>1672</v>
       </c>
@@ -17962,7 +17961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="847" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="847" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A847" t="s">
         <v>1674</v>
       </c>
@@ -17976,7 +17975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="848" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="848" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A848" t="s">
         <v>1676</v>
       </c>
@@ -17990,7 +17989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="849" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="849" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A849" t="s">
         <v>1678</v>
       </c>
@@ -18004,7 +18003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="850" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="850" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A850" t="s">
         <v>1680</v>
       </c>
@@ -18018,7 +18017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="851" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="851" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A851" t="s">
         <v>1682</v>
       </c>
@@ -18032,7 +18031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="852" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="852" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A852" t="s">
         <v>1684</v>
       </c>
@@ -18046,7 +18045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="853" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="853" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A853" t="s">
         <v>1686</v>
       </c>
@@ -18060,7 +18059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="854" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="854" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A854" t="s">
         <v>1688</v>
       </c>
@@ -18074,7 +18073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="855" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="855" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A855" t="s">
         <v>1690</v>
       </c>
@@ -18088,7 +18087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="856" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="856" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A856" t="s">
         <v>1692</v>
       </c>
@@ -18102,7 +18101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="857" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="857" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A857" t="s">
         <v>1694</v>
       </c>
@@ -18116,7 +18115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="858" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="858" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A858" t="s">
         <v>1696</v>
       </c>
@@ -18130,7 +18129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="859" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="859" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A859" t="s">
         <v>1697</v>
       </c>
@@ -18144,7 +18143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="860" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="860" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A860" t="s">
         <v>1699</v>
       </c>
@@ -18158,7 +18157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="861" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="861" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A861" t="s">
         <v>1701</v>
       </c>
@@ -18172,7 +18171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="862" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="862" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A862" t="s">
         <v>1703</v>
       </c>
@@ -18186,7 +18185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="863" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="863" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A863" t="s">
         <v>1705</v>
       </c>
@@ -18200,7 +18199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="864" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="864" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A864" t="s">
         <v>1707</v>
       </c>
@@ -18214,7 +18213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="865" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="865" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A865" t="s">
         <v>1709</v>
       </c>
@@ -18228,7 +18227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="866" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="866" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A866" t="s">
         <v>1710</v>
       </c>
@@ -18242,7 +18241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="867" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="867" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A867" t="s">
         <v>1712</v>
       </c>
@@ -18256,7 +18255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="868" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="868" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A868" t="s">
         <v>1714</v>
       </c>
@@ -18270,7 +18269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="869" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="869" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A869" t="s">
         <v>1716</v>
       </c>
@@ -18284,7 +18283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="870" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="870" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A870" t="s">
         <v>1718</v>
       </c>
@@ -18298,7 +18297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="871" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="871" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A871" t="s">
         <v>1720</v>
       </c>
@@ -18312,7 +18311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="872" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="872" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A872" t="s">
         <v>1722</v>
       </c>
@@ -18326,7 +18325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="873" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="873" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A873" t="s">
         <v>1724</v>
       </c>
@@ -18340,7 +18339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="874" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="874" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A874" t="s">
         <v>1726</v>
       </c>
@@ -18354,7 +18353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="875" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="875" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A875" t="s">
         <v>1728</v>
       </c>
@@ -18368,7 +18367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="876" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="876" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A876" t="s">
         <v>1730</v>
       </c>
@@ -18382,7 +18381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="877" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="877" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A877" t="s">
         <v>1732</v>
       </c>
@@ -18396,7 +18395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="878" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="878" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A878" t="s">
         <v>1734</v>
       </c>
@@ -18410,7 +18409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="879" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="879" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A879" t="s">
         <v>1736</v>
       </c>
@@ -18424,7 +18423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="880" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="880" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A880" t="s">
         <v>1738</v>
       </c>
@@ -18438,7 +18437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="881" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="881" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A881" t="s">
         <v>1740</v>
       </c>
@@ -18452,7 +18451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="882" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="882" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A882" t="s">
         <v>1742</v>
       </c>
@@ -18466,7 +18465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="883" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="883" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A883" t="s">
         <v>1744</v>
       </c>
@@ -18480,7 +18479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="884" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="884" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A884" t="s">
         <v>1746</v>
       </c>
@@ -18494,7 +18493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="885" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="885" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A885" t="s">
         <v>1748</v>
       </c>
@@ -18508,7 +18507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="886" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="886" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A886" t="s">
         <v>1750</v>
       </c>
@@ -18522,7 +18521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="887" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="887" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A887" t="s">
         <v>1752</v>
       </c>
@@ -18536,7 +18535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="888" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="888" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A888" t="s">
         <v>1754</v>
       </c>
@@ -18550,7 +18549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="889" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="889" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A889" t="s">
         <v>1756</v>
       </c>
@@ -18564,7 +18563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="890" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="890" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A890" t="s">
         <v>1758</v>
       </c>
@@ -18578,7 +18577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="891" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="891" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A891" t="s">
         <v>1760</v>
       </c>
@@ -18592,7 +18591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="892" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="892" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A892" t="s">
         <v>1762</v>
       </c>
@@ -18606,7 +18605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="893" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="893" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A893" t="s">
         <v>1764</v>
       </c>
@@ -18620,7 +18619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="894" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="894" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A894" t="s">
         <v>1766</v>
       </c>
@@ -18634,7 +18633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="895" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="895" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A895" t="s">
         <v>1767</v>
       </c>
@@ -18648,7 +18647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="896" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="896" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A896" t="s">
         <v>1768</v>
       </c>
@@ -18662,7 +18661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="897" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="897" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A897" t="s">
         <v>1770</v>
       </c>
@@ -18676,7 +18675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="898" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="898" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A898" t="s">
         <v>1772</v>
       </c>
@@ -18690,7 +18689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="899" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="899" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A899" t="s">
         <v>1774</v>
       </c>
@@ -18704,7 +18703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="900" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="900" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A900" t="s">
         <v>1776</v>
       </c>
@@ -18718,7 +18717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="901" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="901" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A901" t="s">
         <v>1778</v>
       </c>
@@ -18732,7 +18731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="902" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="902" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A902" t="s">
         <v>1780</v>
       </c>
@@ -18746,7 +18745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="903" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="903" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A903" t="s">
         <v>1782</v>
       </c>
@@ -18760,7 +18759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="904" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="904" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A904" t="s">
         <v>1784</v>
       </c>
@@ -18774,7 +18773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="905" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="905" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A905" t="s">
         <v>1786</v>
       </c>
@@ -18788,7 +18787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="906" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="906" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A906" t="s">
         <v>1788</v>
       </c>
@@ -18802,7 +18801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="907" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="907" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A907" t="s">
         <v>1790</v>
       </c>
@@ -18816,7 +18815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="908" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="908" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A908" t="s">
         <v>1792</v>
       </c>
@@ -18830,7 +18829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="909" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="909" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A909" t="s">
         <v>1794</v>
       </c>
@@ -18844,7 +18843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="910" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="910" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A910" t="s">
         <v>1796</v>
       </c>
@@ -18858,7 +18857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="911" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="911" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A911" t="s">
         <v>1798</v>
       </c>
@@ -18872,7 +18871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="912" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="912" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A912" t="s">
         <v>1800</v>
       </c>
@@ -18886,7 +18885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="913" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="913" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A913" t="s">
         <v>1802</v>
       </c>
@@ -18900,7 +18899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="914" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="914" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A914" t="s">
         <v>1804</v>
       </c>
@@ -18914,7 +18913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="915" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="915" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A915" t="s">
         <v>1806</v>
       </c>
@@ -18928,7 +18927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="916" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="916" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A916" t="s">
         <v>1808</v>
       </c>
@@ -18942,7 +18941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="917" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="917" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A917" t="s">
         <v>1810</v>
       </c>
@@ -18956,7 +18955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="918" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="918" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A918" t="s">
         <v>1812</v>
       </c>
@@ -18970,7 +18969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="919" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="919" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A919" t="s">
         <v>1814</v>
       </c>
@@ -18984,7 +18983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="920" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="920" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A920" t="s">
         <v>1816</v>
       </c>
@@ -18998,7 +18997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="921" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="921" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A921" t="s">
         <v>1817</v>
       </c>
@@ -19012,7 +19011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="922" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="922" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A922" t="s">
         <v>1819</v>
       </c>
@@ -19026,7 +19025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="923" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="923" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A923" t="s">
         <v>1821</v>
       </c>
@@ -19040,7 +19039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="924" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="924" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A924" t="s">
         <v>1823</v>
       </c>
@@ -19054,7 +19053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="925" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="925" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A925" t="s">
         <v>1825</v>
       </c>
@@ -19068,7 +19067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="926" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="926" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A926" t="s">
         <v>1827</v>
       </c>
@@ -19082,7 +19081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="927" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="927" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A927" t="s">
         <v>1829</v>
       </c>
@@ -19096,7 +19095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="928" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="928" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A928" t="s">
         <v>1831</v>
       </c>
@@ -19110,7 +19109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="929" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="929" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A929" t="s">
         <v>1832</v>
       </c>
@@ -19124,7 +19123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="930" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="930" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A930" t="s">
         <v>1834</v>
       </c>
@@ -19138,7 +19137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="931" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="931" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A931" t="s">
         <v>1836</v>
       </c>
@@ -19152,7 +19151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="932" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="932" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A932" t="s">
         <v>1837</v>
       </c>
@@ -19166,7 +19165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="933" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="933" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A933" t="s">
         <v>1838</v>
       </c>
@@ -19180,7 +19179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="934" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="934" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A934" t="s">
         <v>1840</v>
       </c>
@@ -19194,7 +19193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="935" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="935" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A935" t="s">
         <v>1842</v>
       </c>
@@ -19208,7 +19207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="936" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="936" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A936" t="s">
         <v>1844</v>
       </c>
@@ -19222,7 +19221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="937" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="937" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A937" t="s">
         <v>1846</v>
       </c>
@@ -19236,7 +19235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="938" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="938" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A938" t="s">
         <v>1848</v>
       </c>
@@ -19250,7 +19249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="939" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="939" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A939" t="s">
         <v>1850</v>
       </c>
@@ -19264,7 +19263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="940" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="940" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A940" t="s">
         <v>1852</v>
       </c>
@@ -19278,7 +19277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="941" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="941" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A941" t="s">
         <v>1854</v>
       </c>
@@ -19292,7 +19291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="942" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="942" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A942" t="s">
         <v>1855</v>
       </c>
@@ -19306,7 +19305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="943" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="943" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A943" t="s">
         <v>1857</v>
       </c>
@@ -19320,7 +19319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="944" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="944" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A944" t="s">
         <v>1859</v>
       </c>
@@ -19334,7 +19333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="945" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="945" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A945" t="s">
         <v>1861</v>
       </c>
@@ -19348,7 +19347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="946" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="946" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A946" t="s">
         <v>1863</v>
       </c>
@@ -19362,7 +19361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="947" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="947" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A947" t="s">
         <v>1865</v>
       </c>
@@ -19376,7 +19375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="948" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="948" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A948" t="s">
         <v>1867</v>
       </c>
@@ -19390,7 +19389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="949" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="949" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A949" t="s">
         <v>1869</v>
       </c>
@@ -19404,7 +19403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="950" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="950" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A950" t="s">
         <v>1871</v>
       </c>
@@ -19418,7 +19417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="951" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="951" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A951" t="s">
         <v>1873</v>
       </c>
@@ -19432,7 +19431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="952" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="952" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A952" t="s">
         <v>1875</v>
       </c>
@@ -19446,7 +19445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="953" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="953" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A953" t="s">
         <v>1877</v>
       </c>
@@ -19460,7 +19459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="954" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="954" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A954" t="s">
         <v>1879</v>
       </c>
@@ -19474,7 +19473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="955" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="955" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A955" t="s">
         <v>1880</v>
       </c>
@@ -19488,7 +19487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="956" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="956" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A956" t="s">
         <v>1882</v>
       </c>
@@ -19502,7 +19501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="957" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="957" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A957" t="s">
         <v>1884</v>
       </c>
@@ -19516,7 +19515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="958" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="958" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A958" t="s">
         <v>1886</v>
       </c>
@@ -19530,7 +19529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="959" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="959" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A959" t="s">
         <v>1888</v>
       </c>
@@ -19544,7 +19543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="960" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="960" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A960" t="s">
         <v>1890</v>
       </c>
@@ -19558,7 +19557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="961" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="961" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A961" t="s">
         <v>1892</v>
       </c>
@@ -19572,7 +19571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="962" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="962" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A962" t="s">
         <v>1894</v>
       </c>
@@ -19586,7 +19585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="963" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="963" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A963" t="s">
         <v>1896</v>
       </c>
@@ -19601,13 +19600,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C963" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <customFilters>
-        <customFilter operator="greaterThan" val="0.5"/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="C1:C963" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Dataset/19/수리남_학습 (19)/수리남1.xlsx
+++ b/Dataset/19/수리남_학습 (19)/수리남1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\doohk\Desktop\GIST\4학년 1학기\AI 프로젝트\AI\Dataset\19\수리남_학습 (19)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5219055C-1713-4514-9BE8-A1757F7123F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E88AD4E0-EF4D-460F-A12E-21A976F5752C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13809" yWindow="2751" windowWidth="16328" windowHeight="13055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5719,7 +5719,7 @@
     <t>자막: 삼우</t>
   </si>
   <si>
-    <t xml:space="preserve">sigmoid label </t>
+    <t>sigmoid label</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -6109,12 +6109,14 @@
   <dimension ref="A1:D963"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="2" max="2" width="59.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.35546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
